--- a/data/trans_orig/P14C31-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14C31-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45FEBCF1-D108-4932-A9D4-B4FAE47C9D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B140DCA6-954E-4114-9795-6F81D7D3F190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7F46808A-AABE-4B1C-8C40-471E570AB663}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{61B23220-D53E-4381-BB8F-6AD1D7682634}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -83,16 +83,16 @@
     <t>83,39%</t>
   </si>
   <si>
-    <t>33,19%</t>
+    <t>32,71%</t>
   </si>
   <si>
     <t>72,38%</t>
   </si>
   <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -110,13 +110,13 @@
     <t>16,61%</t>
   </si>
   <si>
-    <t>66,81%</t>
+    <t>67,29%</t>
   </si>
   <si>
     <t>18,47%</t>
   </si>
   <si>
-    <t>55,92%</t>
+    <t>54,54%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -137,7 +137,7 @@
     <t>9,14%</t>
   </si>
   <si>
-    <t>37,0%</t>
+    <t>37,58%</t>
   </si>
   <si>
     <t>100%</t>
@@ -155,16 +155,16 @@
     <t>26,59%</t>
   </si>
   <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>63,39%</t>
   </si>
   <si>
     <t>84,15%</t>
   </si>
   <si>
-    <t>34,52%</t>
+    <t>33,79%</t>
   </si>
   <si>
     <t>19,33%</t>
@@ -176,16 +176,16 @@
     <t>54,78%</t>
   </si>
   <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
   </si>
   <si>
     <t>15,85%</t>
   </si>
   <si>
-    <t>65,48%</t>
+    <t>66,21%</t>
   </si>
   <si>
     <t>21,99%</t>
@@ -197,7 +197,7 @@
     <t>18,63%</t>
   </si>
   <si>
-    <t>47,48%</t>
+    <t>47,14%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -275,16 +275,19 @@
     <t>70,91%</t>
   </si>
   <si>
-    <t>40,23%</t>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
   </si>
   <si>
     <t>65,43%</t>
   </si>
   <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
   </si>
   <si>
     <t>26,29%</t>
@@ -296,16 +299,16 @@
     <t>19,43%</t>
   </si>
   <si>
-    <t>50,28%</t>
+    <t>50,42%</t>
   </si>
   <si>
     <t>21,18%</t>
   </si>
   <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
   </si>
   <si>
     <t>24,33%</t>
@@ -317,13 +320,13 @@
     <t>9,66%</t>
   </si>
   <si>
-    <t>39,89%</t>
+    <t>40,34%</t>
   </si>
   <si>
     <t>13,4%</t>
   </si>
   <si>
-    <t>40,18%</t>
+    <t>40,63%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -386,49 +389,46 @@
     <t>66,84%</t>
   </si>
   <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
   </si>
   <si>
     <t>80,83%</t>
   </si>
   <si>
-    <t>42,87%</t>
+    <t>44,76%</t>
   </si>
   <si>
     <t>74,91%</t>
   </si>
   <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
   </si>
   <si>
     <t>33,16%</t>
   </si>
   <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
   </si>
   <si>
     <t>19,17%</t>
   </si>
   <si>
-    <t>57,13%</t>
+    <t>55,24%</t>
   </si>
   <si>
     <t>25,09%</t>
   </si>
   <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
+    <t>46,99%</t>
   </si>
   <si>
     <t>15,69%</t>
@@ -440,52 +440,52 @@
     <t>58,05%</t>
   </si>
   <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>71,56%</t>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
   </si>
   <si>
     <t>78,72%</t>
   </si>
   <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
   </si>
   <si>
     <t>69,76%</t>
   </si>
   <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
   </si>
   <si>
     <t>35,29%</t>
   </si>
   <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
   </si>
   <si>
     <t>22,88%</t>
   </si>
   <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
   </si>
   <si>
     <t>6,67%</t>
@@ -494,25 +494,25 @@
     <t>2,02%</t>
   </si>
   <si>
-    <t>15,81%</t>
+    <t>16,88%</t>
   </si>
   <si>
     <t>7,88%</t>
   </si>
   <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
   </si>
   <si>
     <t>7,35%</t>
   </si>
   <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -927,7 +927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE0EDD1-C66A-4C5D-88ED-40FEF8A854DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAD4F168-3B9F-42C3-9391-BD75036D1C5F}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2102,7 +2102,7 @@
         <v>79</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M24" s="7">
         <v>9</v>
@@ -2111,13 +2111,13 @@
         <v>9257</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2132,13 +2132,13 @@
         <v>948</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -2147,13 +2147,13 @@
         <v>2048</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -2162,13 +2162,13 @@
         <v>2996</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2183,13 +2183,13 @@
         <v>878</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -2198,13 +2198,13 @@
         <v>1018</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -2213,13 +2213,13 @@
         <v>1896</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2275,7 +2275,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2287,7 +2287,7 @@
         <v>1788</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>21</v>
@@ -2302,13 +2302,13 @@
         <v>4884</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M28" s="7">
         <v>6</v>
@@ -2317,13 +2317,13 @@
         <v>6673</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2338,7 +2338,7 @@
         <v>2162</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>21</v>
@@ -2353,13 +2353,13 @@
         <v>1026</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M29" s="7">
         <v>3</v>
@@ -2368,13 +2368,13 @@
         <v>3188</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2404,13 +2404,13 @@
         <v>2291</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M30" s="7">
         <v>2</v>
@@ -2419,13 +2419,13 @@
         <v>2291</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2481,7 +2481,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2493,13 +2493,13 @@
         <v>6333</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H32" s="7">
         <v>9</v>
@@ -2508,10 +2508,10 @@
         <v>10431</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>13</v>
@@ -2523,13 +2523,13 @@
         <v>16764</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2544,13 +2544,13 @@
         <v>3142</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H33" s="7">
         <v>2</v>
@@ -2559,13 +2559,13 @@
         <v>2474</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M33" s="7">
         <v>5</v>
@@ -2574,10 +2574,10 @@
         <v>5616</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
       <c r="Q33" s="7" t="s">
         <v>130</v>
@@ -2765,7 +2765,7 @@
         <v>7613</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>145</v>

--- a/data/trans_orig/P14C31-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14C31-Provincia-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B140DCA6-954E-4114-9795-6F81D7D3F190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B94ADF6-F2BA-49C7-BBA2-D1A79E5B2545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{61B23220-D53E-4381-BB8F-6AD1D7682634}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EE013796-CA83-4A7C-8811-97F9C45F6DE9}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="160">
-  <si>
-    <t>Población según el tiempo de diagnóstico del enfermedad de riñón en 2015 (Tasa respuesta: 1,43%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="157">
+  <si>
+    <t>Población según el tiempo de diagnóstico del enfermedad de riñón en 2016 (Tasa respuesta: 1,43%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -83,16 +83,16 @@
     <t>83,39%</t>
   </si>
   <si>
-    <t>32,71%</t>
+    <t>31,42%</t>
   </si>
   <si>
     <t>72,38%</t>
   </si>
   <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -104,19 +104,19 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>83,33%</t>
+    <t>80,4%</t>
   </si>
   <si>
     <t>16,61%</t>
   </si>
   <si>
-    <t>67,29%</t>
+    <t>68,58%</t>
   </si>
   <si>
     <t>18,47%</t>
   </si>
   <si>
-    <t>54,54%</t>
+    <t>54,6%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -125,7 +125,7 @@
     <t>21,19%</t>
   </si>
   <si>
-    <t>80,26%</t>
+    <t>83,51%</t>
   </si>
   <si>
     <t>0%</t>
@@ -137,7 +137,7 @@
     <t>9,14%</t>
   </si>
   <si>
-    <t>37,58%</t>
+    <t>42,05%</t>
   </si>
   <si>
     <t>100%</t>
@@ -149,16 +149,16 @@
     <t>58,67%</t>
   </si>
   <si>
-    <t>18,49%</t>
+    <t>18,1%</t>
   </si>
   <si>
     <t>26,59%</t>
   </si>
   <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
   </si>
   <si>
     <t>84,15%</t>
@@ -170,16 +170,16 @@
     <t>19,33%</t>
   </si>
   <si>
-    <t>79,91%</t>
+    <t>78,86%</t>
   </si>
   <si>
     <t>54,78%</t>
   </si>
   <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>82,52%</t>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
   </si>
   <si>
     <t>15,85%</t>
@@ -191,13 +191,13 @@
     <t>21,99%</t>
   </si>
   <si>
-    <t>81,11%</t>
+    <t>81,98%</t>
   </si>
   <si>
     <t>18,63%</t>
   </si>
   <si>
-    <t>47,14%</t>
+    <t>54,94%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -212,7 +212,7 @@
     <t>46,06%</t>
   </si>
   <si>
-    <t>85,48%</t>
+    <t>85,81%</t>
   </si>
   <si>
     <t>55,59%</t>
@@ -224,7 +224,7 @@
     <t>53,94%</t>
   </si>
   <si>
-    <t>14,52%</t>
+    <t>14,19%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -275,58 +275,55 @@
     <t>70,91%</t>
   </si>
   <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
   </si>
   <si>
     <t>65,43%</t>
   </si>
   <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
   </si>
   <si>
     <t>26,29%</t>
   </si>
   <si>
-    <t>77,91%</t>
-  </si>
-  <si>
     <t>19,43%</t>
   </si>
   <si>
-    <t>50,42%</t>
+    <t>50,88%</t>
   </si>
   <si>
     <t>21,18%</t>
   </si>
   <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
   </si>
   <si>
     <t>24,33%</t>
   </si>
   <si>
-    <t>76,55%</t>
+    <t>81,82%</t>
   </si>
   <si>
     <t>9,66%</t>
   </si>
   <si>
-    <t>40,34%</t>
+    <t>48,79%</t>
   </si>
   <si>
     <t>13,4%</t>
   </si>
   <si>
-    <t>40,63%</t>
+    <t>35,62%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -338,19 +335,19 @@
     <t>59,56%</t>
   </si>
   <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
   </si>
   <si>
     <t>54,91%</t>
   </si>
   <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
   </si>
   <si>
     <t>54,74%</t>
@@ -359,28 +356,28 @@
     <t>12,51%</t>
   </si>
   <si>
-    <t>54,97%</t>
+    <t>55,28%</t>
   </si>
   <si>
     <t>26,23%</t>
   </si>
   <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
   </si>
   <si>
     <t>27,94%</t>
   </si>
   <si>
-    <t>72,18%</t>
+    <t>71,44%</t>
   </si>
   <si>
     <t>18,85%</t>
   </si>
   <si>
-    <t>55,15%</t>
+    <t>49,34%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -389,46 +386,43 @@
     <t>66,84%</t>
   </si>
   <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
   </si>
   <si>
     <t>80,83%</t>
   </si>
   <si>
-    <t>44,76%</t>
+    <t>44,27%</t>
   </si>
   <si>
     <t>74,91%</t>
   </si>
   <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
   </si>
   <si>
     <t>19,17%</t>
   </si>
   <si>
-    <t>55,24%</t>
+    <t>55,73%</t>
   </si>
   <si>
     <t>25,09%</t>
   </si>
   <si>
-    <t>46,99%</t>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
   </si>
   <si>
     <t>15,69%</t>
@@ -440,79 +434,76 @@
     <t>58,05%</t>
   </si>
   <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
   </si>
   <si>
     <t>78,72%</t>
   </si>
   <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
   </si>
   <si>
     <t>69,76%</t>
   </si>
   <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
+    <t>60,03%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
   </si>
   <si>
     <t>35,29%</t>
   </si>
   <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
   </si>
   <si>
     <t>22,88%</t>
   </si>
   <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
   </si>
   <si>
     <t>6,67%</t>
   </si>
   <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
   </si>
   <si>
     <t>7,88%</t>
   </si>
   <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
+    <t>18,62%</t>
   </si>
   <si>
     <t>7,35%</t>
   </si>
   <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -927,7 +918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAD4F168-3B9F-42C3-9391-BD75036D1C5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{239B5186-DD12-4E5E-89B8-E3E0D328DCFC}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2138,7 +2129,7 @@
         <v>21</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -2147,13 +2138,13 @@
         <v>2048</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -2162,13 +2153,13 @@
         <v>2996</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2183,13 +2174,13 @@
         <v>878</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -2198,13 +2189,13 @@
         <v>1018</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -2213,13 +2204,13 @@
         <v>1896</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2275,7 +2266,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2287,7 +2278,7 @@
         <v>1788</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>21</v>
@@ -2302,13 +2293,13 @@
         <v>4884</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M28" s="7">
         <v>6</v>
@@ -2317,13 +2308,13 @@
         <v>6673</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2338,7 +2329,7 @@
         <v>2162</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>21</v>
@@ -2353,13 +2344,13 @@
         <v>1026</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="M29" s="7">
         <v>3</v>
@@ -2368,13 +2359,13 @@
         <v>3188</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2404,13 +2395,13 @@
         <v>2291</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M30" s="7">
         <v>2</v>
@@ -2419,13 +2410,13 @@
         <v>2291</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2481,7 +2472,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2493,13 +2484,13 @@
         <v>6333</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H32" s="7">
         <v>9</v>
@@ -2508,10 +2499,10 @@
         <v>10431</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>13</v>
@@ -2523,13 +2514,13 @@
         <v>16764</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2544,13 +2535,13 @@
         <v>3142</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="H33" s="7">
         <v>2</v>
@@ -2559,13 +2550,13 @@
         <v>2474</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="M33" s="7">
         <v>5</v>
@@ -2574,13 +2565,13 @@
         <v>5616</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2616,7 +2607,7 @@
         <v>30</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -2631,7 +2622,7 @@
         <v>30</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2699,13 +2690,13 @@
         <v>25232</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H36" s="7">
         <v>40</v>
@@ -2714,13 +2705,13 @@
         <v>44735</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M36" s="7">
         <v>65</v>
@@ -2729,13 +2720,13 @@
         <v>69968</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2750,13 +2741,13 @@
         <v>15339</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H37" s="7">
         <v>7</v>
@@ -2765,13 +2756,13 @@
         <v>7613</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="M37" s="7">
         <v>22</v>
@@ -2780,13 +2771,13 @@
         <v>22952</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2801,13 +2792,13 @@
         <v>2899</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H38" s="7">
         <v>4</v>
@@ -2816,13 +2807,13 @@
         <v>4478</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M38" s="7">
         <v>7</v>
@@ -2831,13 +2822,13 @@
         <v>7376</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -2893,7 +2884,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
